--- a/biology/Zoologie/Glutops/Glutops.xlsx
+++ b/biology/Zoologie/Glutops/Glutops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glutops est un genre de diptères de la famille des Pelecorhynchidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 février 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 février 2013) :
 Glutops bandus
 Glutops compactus
 Glutops esakii
@@ -525,7 +539,7 @@
 Glutops semicanus
 Glutops semiformis
 Glutops singularis
-Selon ITIS      (28 février 2013)[2] :
+Selon ITIS      (28 février 2013) :
 Glutops bandus Teskey, 1970
 Glutops compactus Teskey, 1970
 Glutops medius Teskey, 1970
@@ -533,7 +547,7 @@
 Glutops punctatus Wirth, 1954
 Glutops rossi Pechuman, 1945
 Glutops singularis Burgess, 1878
-Selon NCBI  (28 février 2013)[3] :
+Selon NCBI  (28 février 2013) :
 Glutops rossi
 Glutops singularis</t>
         </is>
@@ -563,7 +577,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Edward Burgess, « Two Interesting American Diptera », Proceedings of the Boston Society of Natural History, vol. 19,‎ 1878, p. 320-324 (ISSN 0270-2444, lire en ligne)</t>
         </is>
